--- a/Review.xlsx
+++ b/Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisg\Documents\_DOCTORADO\Search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C7E1C0-C1CB-4ACB-9C8F-54FC8D13E224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECD0F98-80A8-4B19-91C8-47ED47CB8CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A4BC4AA-5E1F-4C02-AF7B-8CBB8CB3916B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Analyzed" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Analyzed!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Analyzed!$A$2:$C$365</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="1228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="1101">
   <si>
     <t>Item Title</t>
   </si>
@@ -48,18 +48,6 @@
     <t>Item DOI</t>
   </si>
   <si>
-    <t>Predictand</t>
-  </si>
-  <si>
-    <t>Rejection reason</t>
-  </si>
-  <si>
-    <t>Concerns</t>
-  </si>
-  <si>
-    <t>https://github.com/naperiferia/COVID-19_Distress</t>
-  </si>
-  <si>
     <t>4P Model for Dynamic Prediction of COVID-19: a Statistical and Machine Learning Approach</t>
   </si>
   <si>
@@ -67,18 +55,6 @@
   </si>
   <si>
     <t>10.1007/s12559-020-09786-6</t>
-  </si>
-  <si>
-    <t>A Deep Learning Application for Prediction of COVID-19</t>
-  </si>
-  <si>
-    <t>Aradhana Behura</t>
-  </si>
-  <si>
-    <t>10.1007/978-981-16-2786-6_7</t>
-  </si>
-  <si>
-    <t>survival rate?</t>
   </si>
   <si>
     <t>AI Techniques for Resource Management During COVID-19</t>
@@ -298,9 +274,6 @@
     <t>10.1016/j.annemergmed.2021.09.041</t>
   </si>
   <si>
-    <t>Scarce</t>
-  </si>
-  <si>
     <t>A Methodological Approach for Predicting COVID-19 Epidemic Using EEMD-ANN Hybrid Model</t>
   </si>
   <si>
@@ -922,9 +895,6 @@
     <t>10.1109/BigData50022.2020.9377852</t>
   </si>
   <si>
-    <t>Deep</t>
-  </si>
-  <si>
     <t>GPR and ANN based Prediction Models for COVID-19 Death Cases</t>
   </si>
   <si>
@@ -1012,9 +982,6 @@
     <t>10.1109/ACCESS.2020.3021952</t>
   </si>
   <si>
-    <t>Not deep enough</t>
-  </si>
-  <si>
     <t>Modelling the Case Fatality Ratio of COVID-19</t>
   </si>
   <si>
@@ -1204,27 +1171,6 @@
     <t>10.26599/BDMA.2020.9020016</t>
   </si>
   <si>
-    <t>Prediction of Covid-19 patients states using Data mining techniques</t>
-  </si>
-  <si>
-    <t>T. Alsmadi, N. Alqudah, H. Najadat</t>
-  </si>
-  <si>
-    <t>10.1109/ICIT52682.2021.9491716</t>
-  </si>
-  <si>
-    <t>Classifier</t>
-  </si>
-  <si>
-    <t>Prediction of COVID-19 Related Information Spreading on Twitter</t>
-  </si>
-  <si>
-    <t>K. BabiÄ‡, M. PetroviÄ‡, S. Beliga, S. MartinÄiÄ‡-IpÅ¡iÄ‡, M. PranjiÄ‡, A. MeÅ¡troviÄ‡</t>
-  </si>
-  <si>
-    <t>10.23919/MIPRO52101.2021.9596693</t>
-  </si>
-  <si>
     <t>Prediction of COVID-19 spread via LSTM and the deterministic SEIR model</t>
   </si>
   <si>
@@ -1279,9 +1225,6 @@
     <t>10.1109/InHeNce52833.2021.9537264</t>
   </si>
   <si>
-    <t>Forecast?</t>
-  </si>
-  <si>
     <t>Short-Term Forecasting COVID-19 Cases In Turkey Using Long Short-Term Memory Network</t>
   </si>
   <si>
@@ -1408,15 +1351,6 @@
     <t>10.3390/life11111118</t>
   </si>
   <si>
-    <t>A classifier prediction model to predict the status of Coronavirus COVID-19 patients in South Korea</t>
-  </si>
-  <si>
-    <t>Al-Najjar H, Al-Rousan N.</t>
-  </si>
-  <si>
-    <t>10.26355/eurrev_202003_20709</t>
-  </si>
-  <si>
     <t>A Comparison: Prediction of Death and Infected COVID-19 Cases in Indonesia Using Time Series Smoothing and LSTM Neural Network</t>
   </si>
   <si>
@@ -1435,18 +1369,6 @@
     <t>10.1016/j.frl.2020.101844</t>
   </si>
   <si>
-    <t>A COVID-19 Pandemic Artificial Intelligence-Based System With Deep Learning Forecasting and Automatic Statistical Data Acquisition: Development and Implementation Study</t>
-  </si>
-  <si>
-    <t>Yu CS, Chang SS, Chang TH, Wu JL, Lin YJ, Chien HF, Chen RJ.</t>
-  </si>
-  <si>
-    <t>10.2196/27806</t>
-  </si>
-  <si>
-    <t>Is DL the main model?</t>
-  </si>
-  <si>
     <t>A COVID-19 time series forecasting model based on MLP ANN</t>
   </si>
   <si>
@@ -1546,27 +1468,6 @@
     <t>10.1007/s12065-021-00600-2</t>
   </si>
   <si>
-    <t>A stochastic numerical analysis based on hybrid NAR-RBFs networks nonlinear SITR model for novel COVID-19 dynamics</t>
-  </si>
-  <si>
-    <t>Shoaib M, Raja MAZ, Sabir MT, Bukhari AH, Alrabaiah H, Shah Z, Kumam P, Islam S.</t>
-  </si>
-  <si>
-    <t>10.1016/j.cmpb.2021.105973</t>
-  </si>
-  <si>
-    <t>SIR</t>
-  </si>
-  <si>
-    <t>A two-layer nested heterogeneous ensemble learning predictive method for COVID-19 mortality</t>
-  </si>
-  <si>
-    <t>Cui S, Wang Y, Wang D, Sai Q, Huang Z, Cheng TCE.</t>
-  </si>
-  <si>
-    <t>10.1016/j.asoc.2021.107946</t>
-  </si>
-  <si>
     <t>Adoption of improved neural network blade pattern recognition in prevention and control of corona virus disease-19 pandemic</t>
   </si>
   <si>
@@ -1639,18 +1540,6 @@
     <t>10.3390/ijerph17124204</t>
   </si>
   <si>
-    <t>Big data analytics and COVID-19: investigating the relationship between government policies and cases in Poland, Turkey and South Korea</t>
-  </si>
-  <si>
-    <t>Sözen ME, Sarıyer G, Ataman MG.</t>
-  </si>
-  <si>
-    <t>10.1093/heapol/czab096</t>
-  </si>
-  <si>
-    <t>Cases?</t>
-  </si>
-  <si>
     <t>Comparative analysis and forecasting of COVID-19 cases in various European countries with ARIMA, NARNN and LSTM approaches</t>
   </si>
   <si>
@@ -1660,15 +1549,6 @@
     <t>10.1016/j.chaos.2020.110015</t>
   </si>
   <si>
-    <t>Comparative analysis of machine learning approaches to analyze and predict the COVID-19 outbreak</t>
-  </si>
-  <si>
-    <t>Naeem M, Yu J, Aamir M, Khan SA, Adeleye O, Khan Z.</t>
-  </si>
-  <si>
-    <t>10.7717/peerj-cs.746</t>
-  </si>
-  <si>
     <t>Comparative study of a mathematical epidemic model, statistical modeling, and deep learning for COVID-19 forecasting and management</t>
   </si>
   <si>
@@ -1714,15 +1594,6 @@
     <t>10.1016/j.asoc.2020.106282</t>
   </si>
   <si>
-    <t>Computational Intelligence-Based Model for Mortality Rate Prediction in COVID-19 Patients</t>
-  </si>
-  <si>
-    <t>Khan IU, Aslam N, Aljabri M, Aljameel SS, Kamaleldin MMA, Alshamrani FM, Chrouf SMB.</t>
-  </si>
-  <si>
-    <t>10.3390/ijerph18126429</t>
-  </si>
-  <si>
     <t>Convolutional neural networks and temporal CNNs for COVID-19 forecasting in France</t>
   </si>
   <si>
@@ -1804,9 +1675,6 @@
     <t>10.1098/rspa.2020.0745</t>
   </si>
   <si>
-    <t>Deaths</t>
-  </si>
-  <si>
     <t>COVID-DeepPredictor: Recurrent Neural Network to Predict SARS-CoV-2 and Other Pathogenic Viruses</t>
   </si>
   <si>
@@ -1843,9 +1711,6 @@
     <t>10.1007/s10489-021-02381-8</t>
   </si>
   <si>
-    <t>R0</t>
-  </si>
-  <si>
     <t>Deep learning model for forecasting COVID-19 outbreak in Egypt</t>
   </si>
   <si>
@@ -1936,15 +1801,6 @@
     <t>10.1016/j.rinp.2021.104287</t>
   </si>
   <si>
-    <t>Effective treatment of imbalanced datasets in health care using modified SMOTE coupled with stacked deep learning algorithms</t>
-  </si>
-  <si>
-    <t>Sowjanya AM, Mrudula O.</t>
-  </si>
-  <si>
-    <t>10.1007/s13204-021-02063-4</t>
-  </si>
-  <si>
     <t>Emergence of universality in the transmission dynamics of COVID-19</t>
   </si>
   <si>
@@ -1963,15 +1819,6 @@
     <t>10.1007/s00500-021-06075-8</t>
   </si>
   <si>
-    <t>Estimating the COVID-19 prevalence and mortality using a novel data-driven hybrid model based on ensemble empirical mode decomposition</t>
-  </si>
-  <si>
-    <t>Wang Y, Xu C, Yao S, Wang L, Zhao Y, Ren J, Li Y.</t>
-  </si>
-  <si>
-    <t>10.1038/s41598-021-00948-6</t>
-  </si>
-  <si>
     <t>Explaining Causal Influence of External Factors on Incidence Rate of Covid-19</t>
   </si>
   <si>
@@ -2026,24 +1873,6 @@
     <t>10.3390/ijerph17145115</t>
   </si>
   <si>
-    <t>Forecasting COVID-19 infections in the Arabian Gulf region</t>
-  </si>
-  <si>
-    <t>Khedhiri S.</t>
-  </si>
-  <si>
-    <t>10.1007/s40808-021-01332-z</t>
-  </si>
-  <si>
-    <t>Forecasting COVID-19 pandemic using optimal singular spectrum analysis</t>
-  </si>
-  <si>
-    <t>Kalantari M.</t>
-  </si>
-  <si>
-    <t>10.1016/j.chaos.2020.110547</t>
-  </si>
-  <si>
     <t>Forecasting COVID-19 recovered cases with Artificial Neural Networks to enable designing an effective blood supply chain</t>
   </si>
   <si>
@@ -2053,15 +1882,6 @@
     <t>10.1016/j.compbiomed.2021.105029</t>
   </si>
   <si>
-    <t>Forecasting Covid-19 Transmission with ARIMA and LSTM Techniques in Morocco</t>
-  </si>
-  <si>
-    <t>Rguibi MA, Moussa N, Madani A, Aaroud A, Zine-Dine K.</t>
-  </si>
-  <si>
-    <t>10.1007/s42979-022-01019-x</t>
-  </si>
-  <si>
     <t>Forecasting of COVID-19 using deep layer Recurrent Neural Networks (RNNs) with Gated Recurrent Units (GRUs) and Long Short-Term Memory (LSTM) cells</t>
   </si>
   <si>
@@ -2071,24 +1891,6 @@
     <t>10.1016/j.chaos.2021.110861</t>
   </si>
   <si>
-    <t>Forecasting of the COVID-19 pandemic situation of Korea</t>
-  </si>
-  <si>
-    <t>Goo T, Apio C, Heo G, Lee D, Lee JH, Lim J, Han K, Park T.</t>
-  </si>
-  <si>
-    <t>10.5808/gi.21028</t>
-  </si>
-  <si>
-    <t>Forecasting the COVID-19 Epidemic by Integrating Symptom Search Behavior Into Predictive Models: Infoveillance Study</t>
-  </si>
-  <si>
-    <t>Rabiolo A, Alladio E, Morales E, McNaught AI, Bandello F, Afifi AA, Marchese A.</t>
-  </si>
-  <si>
-    <t>10.2196/28876</t>
-  </si>
-  <si>
     <t>Forecasting the spread of COVID-19 using LSTM network</t>
   </si>
   <si>
@@ -2116,15 +1918,6 @@
     <t>10.1016/j.chaos.2020.110140</t>
   </si>
   <si>
-    <t>How can process safety and a risk management approach guide pandemic risk management?</t>
-  </si>
-  <si>
-    <t>Alauddin M, Islam Khan MA, Khan F, Imtiaz S, Ahmed S, Amyotte P.</t>
-  </si>
-  <si>
-    <t>10.1016/j.jlp.2020.104310</t>
-  </si>
-  <si>
     <t>Hybrid deep learning of social media big data for predicting the evolution of COVID-19 transmission</t>
   </si>
   <si>
@@ -2134,15 +1927,6 @@
     <t>10.1016/j.knosys.2021.107417</t>
   </si>
   <si>
-    <t>Improving prediction of COVID-19 evolution by fusing epidemiological and mobility data</t>
-  </si>
-  <si>
-    <t>García-Cremades S, Morales-García J, Hernández-Sanjaime R, Martínez-España R, Bueno-Crespo A, Hernández-Orallo E, López-Espín JJ, Cecilia JM.</t>
-  </si>
-  <si>
-    <t>10.1038/s41598-021-94696-2</t>
-  </si>
-  <si>
     <t>Improving the performance of deep learning models using statistical features: The case study of COVID-19 forecasting</t>
   </si>
   <si>
@@ -2179,24 +1963,6 @@
     <t>10.1016/j.asoc.2021.107469</t>
   </si>
   <si>
-    <t>Model-based forecasting for Canadian COVID-19 data</t>
-  </si>
-  <si>
-    <t>Chen LP, Zhang Q, Yi GY, He W.</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0244536</t>
-  </si>
-  <si>
-    <t>Modeling and forecasting number of confirmed and death caused COVID-19 in IRAN: A comparison of time series forecasting methods</t>
-  </si>
-  <si>
-    <t>Talkhi N, Akhavan Fatemi N, Ataei Z, Jabbari Nooghabi M.</t>
-  </si>
-  <si>
-    <t>10.1016/j.bspc.2021.102494</t>
-  </si>
-  <si>
     <t>Modeling and prediction of COVID-19 in Mexico applying mathematical and computational models</t>
   </si>
   <si>
@@ -2215,24 +1981,6 @@
     <t>10.1155/2020/5714714</t>
   </si>
   <si>
-    <t>Modeling the trend of coronavirus disease 2019 and restoration of operational capability of metropolitan medical service in China: a machine learning and mathematical model-based analysis</t>
-  </si>
-  <si>
-    <t>Liu Z, Huang S, Lu W, Su Z, Yin X, Liang H, Zhang H.</t>
-  </si>
-  <si>
-    <t>10.1186/s41256-020-00145-4</t>
-  </si>
-  <si>
-    <t>Modelling dynamics of coronavirus disease 2019 spread for pandemic forecasting based on Simulink</t>
-  </si>
-  <si>
-    <t>Liu XX, Hu S, Fong SJ, Crespo RG, Herrera-Viedma E.</t>
-  </si>
-  <si>
-    <t>10.1088/1478-3975/abf990</t>
-  </si>
-  <si>
     <t>Multiple Ensemble Neural Network Models with Fuzzy Response Aggregation for Predicting COVID-19 Time Series: The Case of Mexico</t>
   </si>
   <si>
@@ -2257,15 +2005,6 @@
     <t>10.1016/j.envres.2021.112348</t>
   </si>
   <si>
-    <t>National Holidays and Social Mobility Behaviors: Alternatives for Forecasting COVID-19 Deaths in Brazil</t>
-  </si>
-  <si>
-    <t>Aragão DP, Dos Santos DH, Mondini A, Gonçalves LMG.</t>
-  </si>
-  <si>
-    <t>10.3390/ijerph182111595</t>
-  </si>
-  <si>
     <t>Neural network powered COVID-19 spread forecasting model</t>
   </si>
   <si>
@@ -2335,15 +2074,6 @@
     <t>10.1016/j.matpr.2021.07.266</t>
   </si>
   <si>
-    <t>Performance Evaluation of Soft Computing Approaches for Forecasting COVID-19 Pandemic Cases</t>
-  </si>
-  <si>
-    <t>Shoaib M, Salahudin H, Hammad M, Ahmad S, Khan AA, Khan MM, Baig MAI, Ahmad F, Ullah MK.</t>
-  </si>
-  <si>
-    <t>10.1007/s42979-021-00764-9</t>
-  </si>
-  <si>
     <t>Predicting and analyzing the COVID-19 epidemic in China: Based on SEIRD, LSTM and GWR models</t>
   </si>
   <si>
@@ -2380,36 +2110,6 @@
     <t>10.2196/18828</t>
   </si>
   <si>
-    <t>Predicting increases in COVID-19 incidence to identify locations for targeted testing in West Virginia: A machine learning enhanced approach</t>
-  </si>
-  <si>
-    <t>Price BS, Khodaverdi M, Halasz A, Hendricks B, Kimble W, Smith GS, Hodder SL.</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0259538</t>
-  </si>
-  <si>
-    <t>Predicting Mortality of COVID-19 Patients based on Data Mining Techniques</t>
-  </si>
-  <si>
-    <t>Moulaei K, Ghasemian F, Bahaadinbeigy K, Ershad Sarbi R, Mohamadi Taghiabad Z.</t>
-  </si>
-  <si>
-    <t>10.31661/jbpe.v0i0.2104-1300</t>
-  </si>
-  <si>
-    <t>Predicting the Dynamics of the COVID-19 Pandemic in the United States Using Graph Theory-Based Neural Networks</t>
-  </si>
-  <si>
-    <t>Davahli MR, Fiok K, Karwowski W, Aljuaid AM, Taiar R.</t>
-  </si>
-  <si>
-    <t>10.3390/ijerph18073834</t>
-  </si>
-  <si>
-    <t>Rt</t>
-  </si>
-  <si>
     <t>Predicting the epidemic curve of the coronavirus (SARS-CoV-2) disease (COVID-19) using artificial intelligence: An application on the first and second waves</t>
   </si>
   <si>
@@ -2419,24 +2119,6 @@
     <t>10.1016/j.imu.2021.100691</t>
   </si>
   <si>
-    <t>Prediction and analysis of Corona Virus Disease 2019</t>
-  </si>
-  <si>
-    <t>Hao Y, Xu T, Hu H, Wang P, Bai Y.</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0239960</t>
-  </si>
-  <si>
-    <t>Prediction and control of COVID-19 spreading based on a hybrid intelligent model</t>
-  </si>
-  <si>
-    <t>Zhang G, Liu X.</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0246360</t>
-  </si>
-  <si>
     <t>Prediction for the spread of COVID-19 in India and effectiveness of preventive measures</t>
   </si>
   <si>
@@ -2626,18 +2308,6 @@
     <t>10.1007/s11071-021-07099-3</t>
   </si>
   <si>
-    <t>Supervised Machine Learning Models for Prediction of COVID-19 Infection using Epidemiology Dataset</t>
-  </si>
-  <si>
-    <t>Muhammad LJ, Algehyne EA, Usman SS, Ahmad A, Chakraborty C, Mohammed IA.</t>
-  </si>
-  <si>
-    <t>10.1007/s42979-020-00394-7</t>
-  </si>
-  <si>
-    <t>DL as main model?</t>
-  </si>
-  <si>
     <t>Susceptible-Infected-Removed Mathematical Model under Deep Learning in Hospital Infection Control of Novel Coronavirus Pneumonia</t>
   </si>
   <si>
@@ -2761,15 +2431,6 @@
     <t>10.1111/tgis.12803</t>
   </si>
   <si>
-    <t>Using Machine Learning to Predict Mortality for COVID-19 Patients on Day 0 in the ICU</t>
-  </si>
-  <si>
-    <t>Jamshidi E, Asgary A, Tavakoli N, Zali A, Setareh S, Esmaily H, Jamaldini SH, Daaee A, Babajani A, Sendani Kashi MA, Jamshidi M, Jamal Rahi S, Mansouri N.</t>
-  </si>
-  <si>
-    <t>10.3389/fdgth.2021.681608</t>
-  </si>
-  <si>
     <t>Using Mobility Data to Understand and Forecast COVID19 Dynamics</t>
   </si>
   <si>
@@ -2968,15 +2629,6 @@
     <t>10.1007/s41324-021-00408-3</t>
   </si>
   <si>
-    <t>Comparative analysis of epidemiological models for COVID-19 pandemic predictions</t>
-  </si>
-  <si>
-    <t>Gupta, R., Pandey, G., Pal, S.K.</t>
-  </si>
-  <si>
-    <t>10.1080/24709360.2021.1913709</t>
-  </si>
-  <si>
     <t>Comparative analysis of Gated Recurrent Units (GRU), long Short-Term memory (LSTM) cells, autoregressive Integrated moving average (ARIMA), seasonal autoregressive Integrated moving average (SARIMA) for forecasting COVID-19 trends</t>
   </si>
   <si>
@@ -2986,15 +2638,6 @@
     <t>10.1016/j.aej.2022.01.011</t>
   </si>
   <si>
-    <t>Comparative study of machine learning methods for COVID-19 transmission forecasting</t>
-  </si>
-  <si>
-    <t>Dairi, A., Harrou, F., Zeroual, A., Hittawe, M.M., Sun, Y.</t>
-  </si>
-  <si>
-    <t>10.1016/j.jbi.2021.103791</t>
-  </si>
-  <si>
     <t>Comparison Between Two Systems for Forecasting Covid-19 Infected Cases</t>
   </si>
   <si>
@@ -3040,24 +2683,6 @@
     <t>10.1007/978-981-15-8097-0_2</t>
   </si>
   <si>
-    <t>COVID-19 dynamics across the US: A deep learning study of human mobility and social behavior</t>
-  </si>
-  <si>
-    <t>Bhouri, M.A., Costabal, F.S., Wang, H., Linka, K., Peirlinck, M., Kuhl, E., Perdikaris, P.</t>
-  </si>
-  <si>
-    <t>10.1016/j.cma.2021.113891</t>
-  </si>
-  <si>
-    <t>Covid-19 forecasting and analysis using different time-series model and algorithms</t>
-  </si>
-  <si>
-    <t>Srivastava, Y., Bhardwaj, S., Parvathi, R.</t>
-  </si>
-  <si>
-    <t>10.31782/IJCRR.2021.SP191</t>
-  </si>
-  <si>
     <t>COVID-19 in Iran: Forecasting Pandemic Using Deep Learning</t>
   </si>
   <si>
@@ -3076,18 +2701,6 @@
     <t>10.3390/a13100249</t>
   </si>
   <si>
-    <t>Data Augmentation for Short-Term Time Series Prediction with Deep Learning</t>
-  </si>
-  <si>
-    <t>Flores, A., Tito-Chura, H., Apaza-Alanoca, H.</t>
-  </si>
-  <si>
-    <t>10.1007/978-3-030-80126-7_36</t>
-  </si>
-  <si>
-    <t>Covid main?</t>
-  </si>
-  <si>
     <t>Deep diffusion-based forecasting of COVID-19 by incorporating network-level mobility information</t>
   </si>
   <si>
@@ -3169,15 +2782,6 @@
     <t>10.1108/WJE-03-2021-0145</t>
   </si>
   <si>
-    <t>Epidemiological Predictive Modeling of COVID-19 Infection: Development, Testing, and Implementation on the Population of the Benelux Union</t>
-  </si>
-  <si>
-    <t>Å uÅ¡terÅ¡iÄ, T., BlagojeviÄ‡, A., CvetkoviÄ‡, D., CvetkoviÄ‡, A., Lorencin, I., Å egota, S.B., MilovanoviÄ‡, D., BaskiÄ‡, D., Car, Z., FilipoviÄ‡, N.</t>
-  </si>
-  <si>
-    <t>10.3389/fpubh.2021.727274</t>
-  </si>
-  <si>
     <t>Forecasting COVID-19 Cases in Morocco: A Deep Learning Approach</t>
   </si>
   <si>
@@ -3277,15 +2881,6 @@
     <t>10.1098/rsif.2020.0494</t>
   </si>
   <si>
-    <t>Modeling and Predictions of COVID-19 Spread in India</t>
-  </si>
-  <si>
-    <t>Karmakar, S., Gautam, D., Karmakar, P.</t>
-  </si>
-  <si>
-    <t>10.1007/978-981-16-5078-9_17</t>
-  </si>
-  <si>
     <t>Modeling the spread of COVID-19 by leveraging machine and deep learning models</t>
   </si>
   <si>
@@ -3295,15 +2890,6 @@
     <t>10.32604/IASC.2022.020606</t>
   </si>
   <si>
-    <t>Multiple output and multi-steps prediction of COVID-19 spread using weather and vaccination data</t>
-  </si>
-  <si>
-    <t>Berhich, A., Jebli, I., Mbilong, P.M., El Kassiri, A., Belouadha, F.-Z.</t>
-  </si>
-  <si>
-    <t>10.18280/isi.260501</t>
-  </si>
-  <si>
     <t>Optimizing deep neural networks to predict the effect of social distancing on COVID-19 spread</t>
   </si>
   <si>
@@ -3313,15 +2899,6 @@
     <t>10.1016/j.cie.2022.107970</t>
   </si>
   <si>
-    <t>Predicting COVID-19 trends in Canada: A tale of four models</t>
-  </si>
-  <si>
-    <t>Zhang, W., Zhao, W.G.W., Wu, D., Yang, Y.</t>
-  </si>
-  <si>
-    <t>10.1049/ccs.2020.0017</t>
-  </si>
-  <si>
     <t>Predicting mortality in SARS-COV-2 (COVID-19) positive patients in the inpatient setting using a novel deep neural network</t>
   </si>
   <si>
@@ -3331,24 +2908,6 @@
     <t>10.1016/j.ijmedinf.2021.104556</t>
   </si>
   <si>
-    <t>Prediction of the COVID-19 epidemic trends based on SEIR and AI models</t>
-  </si>
-  <si>
-    <t>Feng, S., Feng, Z., Ling, C., Chang, C., Feng, Z.</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0245101</t>
-  </si>
-  <si>
-    <t>Predictive analytics of covid-19 pandemic: Statistical modelling perspective</t>
-  </si>
-  <si>
-    <t>Kumar, S.L., Sarobin M, V.R., Anbarasi L, J.</t>
-  </si>
-  <si>
-    <t>10.48048/wjst.2021.15583</t>
-  </si>
-  <si>
     <t>Real-time prediction of COVID-19 related mortality using electronic health records</t>
   </si>
   <si>
@@ -3722,6 +3281,66 @@
   </si>
   <si>
     <t>Zheng, et al.</t>
+  </si>
+  <si>
+    <t>Object of study</t>
+  </si>
+  <si>
+    <t>Model identification</t>
+  </si>
+  <si>
+    <t>Forecast horizon</t>
+  </si>
+  <si>
+    <t>Data sources</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>Study interval</t>
+  </si>
+  <si>
+    <t>Missing data handling</t>
+  </si>
+  <si>
+    <t>Data preprocessing</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Objective function and optimizer</t>
+  </si>
+  <si>
+    <t>Accessibility</t>
+  </si>
+  <si>
+    <t>Initialization</t>
+  </si>
+  <si>
+    <t>Topology</t>
+  </si>
+  <si>
+    <t>Activation functions</t>
+  </si>
+  <si>
+    <t>Error metrics</t>
+  </si>
+  <si>
+    <t>Benchmark comparison</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>Statistical inference</t>
+  </si>
+  <si>
+    <t>Final Score</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -3770,13 +3389,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -3787,8 +3399,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3837,6 +3455,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3852,25 +3476,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4187,4839 +3829,4143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB849CF1-AD28-49EE-83FB-47D8031749EF}">
-  <dimension ref="A1:G407"/>
+  <dimension ref="A1:V365"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B321" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="33.7109375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="33.7109375" style="14" customWidth="1"/>
+    <col min="4" max="21" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:22" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="18" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>1085</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>1086</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>1087</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>1088</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>1089</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>1091</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>1092</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>1093</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>1094</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>1090</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>1097</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>1095</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>1096</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>1098</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="15">
+        <v>1</v>
+      </c>
+      <c r="E2" s="15">
+        <v>2</v>
+      </c>
+      <c r="F2" s="15">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G2" s="15">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H2" s="15">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I2" s="15">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="J2" s="15">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="K2" s="15">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="L2" s="15">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="M2" s="15">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="N2" s="15">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="O2" s="15">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="P2" s="15">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="Q2" s="15">
         <v>14</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="R2" s="15">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="S2" s="15">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="T2" s="15">
         <v>17</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="U2" s="15">
         <v>18</v>
       </c>
-      <c r="C5" s="4" t="s">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F5"/>
-      <c r="G5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="4" t="s">
+    </row>
+    <row r="9" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4" t="s">
+    </row>
+    <row r="10" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="4" t="s">
+    </row>
+    <row r="11" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="4" t="s">
+    </row>
+    <row r="12" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F9"/>
-      <c r="G9"/>
-    </row>
-    <row r="10" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="4" t="s">
+    </row>
+    <row r="13" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F10"/>
-      <c r="G10"/>
-    </row>
-    <row r="11" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="4" t="s">
+    </row>
+    <row r="14" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F11"/>
-      <c r="G11"/>
-    </row>
-    <row r="12" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="4" t="s">
+    </row>
+    <row r="15" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F12"/>
-      <c r="G12"/>
-    </row>
-    <row r="13" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="4" t="s">
+    </row>
+    <row r="16" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F13"/>
-      <c r="G13"/>
-    </row>
-    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="4" t="s">
+    </row>
+    <row r="17" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F14"/>
-      <c r="G14"/>
-    </row>
-    <row r="15" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="4" t="s">
+    </row>
+    <row r="18" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F15"/>
-      <c r="G15"/>
-    </row>
-    <row r="16" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="4" t="s">
+    </row>
+    <row r="19" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F16"/>
-      <c r="G16"/>
-    </row>
-    <row r="17" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="4" t="s">
+    </row>
+    <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F17"/>
-      <c r="G17"/>
-    </row>
-    <row r="18" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="4" t="s">
+    </row>
+    <row r="21" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F18"/>
-      <c r="G18"/>
-    </row>
-    <row r="19" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="4" t="s">
+    </row>
+    <row r="22" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F19"/>
-      <c r="G19"/>
-    </row>
-    <row r="20" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="4" t="s">
+    </row>
+    <row r="23" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F20"/>
-      <c r="G20"/>
-    </row>
-    <row r="21" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="4" t="s">
+    </row>
+    <row r="24" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F21"/>
-      <c r="G21"/>
-    </row>
-    <row r="22" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="4" t="s">
+    </row>
+    <row r="25" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F22"/>
-      <c r="G22"/>
-    </row>
-    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="4" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F23"/>
-      <c r="G23"/>
-    </row>
-    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="4" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F24"/>
-      <c r="G24"/>
-    </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="C27" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="4" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="B28" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F25"/>
-      <c r="G25"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="4" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="6" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+    <row r="36" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F36"/>
-      <c r="G36"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+    <row r="41" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C44" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="F41"/>
-      <c r="G41"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C45" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C46" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+    <row r="47" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C47" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+    <row r="48" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C48" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+    <row r="49" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C49" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+    <row r="50" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C50" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F47"/>
-      <c r="G47"/>
-    </row>
-    <row r="48" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B51" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="F48"/>
-      <c r="G48"/>
-    </row>
-    <row r="49" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B52" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C52" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F49"/>
-      <c r="G49"/>
-    </row>
-    <row r="50" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C53" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="F50"/>
-      <c r="G50"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B54" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C54" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+    <row r="55" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B55" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C55" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+    <row r="56" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B56" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C56" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
+    <row r="57" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B57" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C57" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
+    <row r="58" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B58" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C58" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="F55"/>
-      <c r="G55"/>
-    </row>
-    <row r="56" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
+    </row>
+    <row r="59" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B59" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C59" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="F56"/>
-      <c r="G56"/>
-    </row>
-    <row r="57" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+    </row>
+    <row r="60" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B60" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C60" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="F57"/>
-      <c r="G57"/>
-    </row>
-    <row r="58" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+    </row>
+    <row r="61" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B61" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C61" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="F58"/>
-      <c r="G58"/>
-    </row>
-    <row r="59" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
+    </row>
+    <row r="62" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B62" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C62" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="F59"/>
-      <c r="G59"/>
-    </row>
-    <row r="60" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
+    </row>
+    <row r="63" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B63" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C63" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="F60"/>
-      <c r="G60"/>
-    </row>
-    <row r="61" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
+    </row>
+    <row r="64" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B64" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C64" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="F61"/>
-      <c r="G61"/>
-    </row>
-    <row r="62" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B65" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C65" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="F62"/>
-      <c r="G62"/>
-    </row>
-    <row r="63" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B66" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C66" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="F63"/>
-      <c r="G63"/>
-    </row>
-    <row r="64" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B67" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C67" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="F64"/>
-      <c r="G64"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B68" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C68" s="6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B69" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C69" s="6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B70" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C70" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B71" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C71" s="6" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B72" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C72" s="6" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B73" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C73" s="6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B74" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C74" s="6" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B75" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C75" s="6" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B76" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C76" s="6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B77" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C77" s="6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B78" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C78" s="6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B79" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C79" s="6" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
+    <row r="80" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B80" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C80" s="6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
+    <row r="81" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B81" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C81" s="6" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
+    <row r="82" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B82" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C82" s="6" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
+    <row r="83" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B83" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C83" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="F80"/>
-      <c r="G80"/>
-    </row>
-    <row r="81" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B84" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C84" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="F81"/>
-      <c r="G81"/>
-    </row>
-    <row r="82" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="7" t="s">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B85" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C85" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="F82"/>
-      <c r="G82"/>
-    </row>
-    <row r="83" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="7" t="s">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B86" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C86" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="F83"/>
-      <c r="G83"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B87" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C87" s="6" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="7" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B88" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C88" s="6" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
+    <row r="89" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B89" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C89" s="6" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="7" t="s">
+    <row r="90" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B90" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C90" s="6" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="7" t="s">
+    <row r="91" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B91" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C91" s="6" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
+    <row r="92" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B92" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C92" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="F89"/>
-      <c r="G89"/>
-    </row>
-    <row r="90" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="7" t="s">
+    </row>
+    <row r="93" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B93" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C93" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="F90"/>
-      <c r="G90"/>
-    </row>
-    <row r="91" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
+    </row>
+    <row r="94" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B94" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C94" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="F91"/>
-      <c r="G91"/>
-    </row>
-    <row r="92" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="7" t="s">
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B95" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C95" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="F92"/>
-      <c r="G92"/>
-    </row>
-    <row r="93" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B96" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C96" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="F93"/>
-      <c r="G93"/>
-    </row>
-    <row r="94" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="7" t="s">
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B97" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C97" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="F94"/>
-      <c r="G94"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="7" t="s">
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B98" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C98" s="6" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="7" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B99" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C99" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="F96" s="5" t="s">
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="7" t="s">
+      <c r="B100" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="C100" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C97" s="7" t="s">
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
+      <c r="B101" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="C101" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C98" s="7" t="s">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="7" t="s">
+      <c r="B102" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C102" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="B99" s="7" t="s">
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="B103" s="6" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="7" t="s">
+      <c r="C103" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="B100" s="7" t="s">
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="B104" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="F100" s="5"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="7" t="s">
+      <c r="C104" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="B101" s="7" t="s">
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="B105" s="6" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="7" t="s">
+      <c r="C105" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="B102" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="C102" s="7" t="s">
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="7" t="s">
+      <c r="B106" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="C106" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="C103" s="7" t="s">
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="7" t="s">
+      <c r="B107" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="C107" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="C104" s="7" t="s">
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="7" t="s">
+      <c r="B108" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="C108" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="C105" s="7" t="s">
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="7" t="s">
+      <c r="B109" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="C109" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C106" s="7" t="s">
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="F106" s="5"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="7" t="s">
+      <c r="B110" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C110" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B107" s="7" t="s">
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="B111" s="6" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="7" t="s">
+      <c r="C111" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B108" s="7" t="s">
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="B112" s="6" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="7" t="s">
+      <c r="C112" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B109" s="7" t="s">
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="B113" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="F109" s="5"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="7" t="s">
+      <c r="C113" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B110" s="7" t="s">
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="B114" s="6" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="7" t="s">
+      <c r="C114" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="B111" s="7" t="s">
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="B115" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="F111" s="5"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="7" t="s">
+      <c r="C115" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B112" s="7" t="s">
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="B116" s="6" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="7" t="s">
+      <c r="C116" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="B113" s="7" t="s">
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="B117" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="F113" s="5"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="7" t="s">
+      <c r="C117" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="B114" s="7" t="s">
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="B118" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="F114" s="5"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="7" t="s">
+      <c r="C118" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="B115" s="7" t="s">
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="B119" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="F115" s="5"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="7" t="s">
+      <c r="C119" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="B116" s="7" t="s">
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="B120" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="F116" s="5"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="7" t="s">
+      <c r="C120" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="B117" s="7" t="s">
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="B121" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="F117" s="5"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="7" t="s">
+      <c r="C121" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="B118" s="7" t="s">
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C118" s="7" t="s">
+      <c r="B122" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="F118" s="5"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="7" t="s">
+      <c r="C122" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="B119" s="7" t="s">
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="B123" s="6" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="7" t="s">
+      <c r="C123" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="B120" s="7" t="s">
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="B124" s="6" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="7" t="s">
+      <c r="C124" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="B121" s="7" t="s">
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="B125" s="6" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="7" t="s">
+      <c r="C125" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B122" s="7" t="s">
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="B126" s="6" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="7" t="s">
+      <c r="C126" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="B123" s="7" t="s">
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="C123" s="7" t="s">
+      <c r="B127" s="6" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="7" t="s">
+      <c r="C127" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B124" s="7" t="s">
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="C124" s="7" t="s">
+      <c r="B128" s="6" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="7" t="s">
+      <c r="C128" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="B125" s="7" t="s">
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="C125" s="7" t="s">
+      <c r="B129" s="6" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="7" t="s">
+      <c r="C129" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="B126" s="7" t="s">
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="C126" s="7" t="s">
+      <c r="B130" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="F126" s="5"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="7" t="s">
+      <c r="C130" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="B127" s="7" t="s">
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="C127" s="7" t="s">
+      <c r="B131" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="F127" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="G127" s="5"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="7" t="s">
+      <c r="C131" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="B128" s="7" t="s">
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="C128" s="7" t="s">
+      <c r="B132" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="F128" s="5" t="s">
+      <c r="C132" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="G128" s="5"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="7" t="s">
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="B129" s="7" t="s">
+      <c r="B133" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="C129" s="7" t="s">
+      <c r="C133" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="F129" s="5" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="7" t="s">
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="B130" s="7" t="s">
+      <c r="B134" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C130" s="7" t="s">
+      <c r="C134" s="6" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="7" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="B135" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="C131" s="7" t="s">
+      <c r="C135" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="F131" s="5"/>
-      <c r="G131" s="5"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="7" t="s">
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="B136" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="C132" s="7" t="s">
+      <c r="C136" s="6" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="7" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="B137" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="C133" s="7" t="s">
+      <c r="C137" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="F133" s="5"/>
-      <c r="G133" s="5"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="7" t="s">
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="B134" s="7" t="s">
+      <c r="B138" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="C134" s="7" t="s">
+      <c r="C138" s="6" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="7" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="B135" s="7" t="s">
+      <c r="B139" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C135" s="7" t="s">
+      <c r="C139" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="F135" s="5" t="s">
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="6" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="7" t="s">
+      <c r="B140" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="B136" s="7" t="s">
+      <c r="C140" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C136" s="7" t="s">
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="6" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="7" t="s">
+      <c r="B141" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="B137" s="7" t="s">
+      <c r="C141" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="C137" s="7" t="s">
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="F137" s="5"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="7" t="s">
+      <c r="B142" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="B138" s="7" t="s">
+      <c r="C142" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="C138" s="7" t="s">
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="F138" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="7" t="s">
+      <c r="B143" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="C143" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="C139" s="7" t="s">
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="6" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="7" t="s">
+      <c r="B144" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="C144" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="C140" s="7" t="s">
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="F140" s="5"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="7" t="s">
+      <c r="B145" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="C145" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="C141" s="7" t="s">
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="F141" s="5"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="7" t="s">
+      <c r="B146" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="B142" s="7" t="s">
+      <c r="C146" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="C142" s="7" t="s">
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="F142" s="5"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="7" t="s">
+      <c r="B147" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="B143" s="7" t="s">
+      <c r="C147" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="C143" s="7" t="s">
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="7" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="7" t="s">
+      <c r="B148" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="B144" s="7" t="s">
+      <c r="C148" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="C144" s="7" t="s">
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="F144" s="5"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="7" t="s">
+      <c r="B149" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="B145" s="7" t="s">
+      <c r="C149" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="C145" s="7" t="s">
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="7" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="7" t="s">
+      <c r="B150" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="B146" s="7" t="s">
+      <c r="C150" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="C146" s="7" t="s">
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="F146" s="5"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="7" t="s">
+      <c r="B151" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="B147" s="7" t="s">
+      <c r="C151" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="C147" s="7" t="s">
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="F147" s="5"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="8" t="s">
+      <c r="B152" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="B148" s="8" t="s">
+      <c r="C152" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="C148" s="8" t="s">
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="F148" s="5"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="8" t="s">
+      <c r="B153" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="B149" s="8" t="s">
+      <c r="C153" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="C149" s="8" t="s">
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="7" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="8" t="s">
+      <c r="B154" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="B150" s="8" t="s">
+      <c r="C154" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="C150" s="8" t="s">
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="F150" s="5" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="8" t="s">
+      <c r="B155" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="B151" s="8" t="s">
+      <c r="C155" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="C151" s="8" t="s">
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="7" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="8" t="s">
+      <c r="B156" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="B152" s="8" t="s">
+      <c r="C156" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="C152" s="8" t="s">
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="7" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="8" t="s">
+      <c r="B157" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="B153" s="8" t="s">
+      <c r="C157" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="C153" s="8" t="s">
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="F153" s="5" t="s">
+      <c r="B158" s="7" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="8" t="s">
+      <c r="C158" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="B154" s="8" t="s">
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="C154" s="8" t="s">
+      <c r="B159" s="7" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="8" t="s">
+      <c r="C159" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="B155" s="8" t="s">
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="C155" s="8" t="s">
+      <c r="B160" s="7" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="8" t="s">
+      <c r="C160" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="B156" s="8" t="s">
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="C156" s="8" t="s">
+      <c r="B161" s="7" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="8" t="s">
+      <c r="C161" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="B157" s="8" t="s">
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="C157" s="8" t="s">
+      <c r="B162" s="7" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="8" t="s">
+      <c r="C162" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="B158" s="8" t="s">
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="C158" s="8" t="s">
+      <c r="B163" s="7" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="8" t="s">
+      <c r="C163" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="B159" s="8" t="s">
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="C159" s="8" t="s">
+      <c r="B164" s="7" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="8" t="s">
+      <c r="C164" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="B160" s="8" t="s">
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="C160" s="8" t="s">
+      <c r="B165" s="7" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="C165" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="B161" s="8" t="s">
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="C161" s="8" t="s">
+      <c r="B166" s="7" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="8" t="s">
+      <c r="C166" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="B162" s="8" t="s">
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="C162" s="8" t="s">
+      <c r="B167" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="F162" s="5"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="8" t="s">
+      <c r="C167" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="B163" s="8" t="s">
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="C163" s="8" t="s">
+      <c r="B168" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="F163" s="5"/>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="8" t="s">
+      <c r="C168" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="B164" s="8" t="s">
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="C164" s="8" t="s">
+      <c r="B169" s="7" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="8" t="s">
+      <c r="C169" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="B165" s="8" t="s">
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="C165" s="8" t="s">
+      <c r="B170" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="F165" s="5" t="s">
+      <c r="C170" s="7" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="8" t="s">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="B166" s="8" t="s">
+      <c r="B171" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="C166" s="8" t="s">
+      <c r="C171" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="F166" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="8" t="s">
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="B167" s="8" t="s">
+      <c r="B172" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="C167" s="8" t="s">
+      <c r="C172" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="F167" s="5"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="8" t="s">
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="B168" s="8" t="s">
+      <c r="B173" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="C168" s="8" t="s">
+      <c r="C173" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="F168" s="5"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="8" t="s">
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="B169" s="8" t="s">
+      <c r="B174" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="C169" s="8" t="s">
+      <c r="C174" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="F169" s="5"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="8" t="s">
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="B170" s="8" t="s">
+      <c r="B175" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="C170" s="8" t="s">
+      <c r="C175" s="7" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="8" t="s">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="B171" s="8" t="s">
+      <c r="B176" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="C171" s="8" t="s">
+      <c r="C176" s="7" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="8" t="s">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="B172" s="8" t="s">
+      <c r="B177" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="C172" s="8" t="s">
+      <c r="C177" s="7" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="8" t="s">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="B173" s="8" t="s">
+      <c r="B178" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="C173" s="8" t="s">
+      <c r="C178" s="7" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="8" t="s">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="B174" s="8" t="s">
+      <c r="B179" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="C174" s="8" t="s">
+      <c r="C179" s="7" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="8" t="s">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="B175" s="8" t="s">
+      <c r="B180" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="C175" s="8" t="s">
+      <c r="C180" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="F175" s="5" t="s">
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="G175" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="8" t="s">
+      <c r="B181" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="B176" s="8" t="s">
+      <c r="C181" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="C176" s="8" t="s">
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="7" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="8" t="s">
+      <c r="B182" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="B177" s="8" t="s">
+      <c r="C182" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="C177" s="8" t="s">
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="F177" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="8" t="s">
+      <c r="B183" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="B178" s="8" t="s">
+      <c r="C183" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="C178" s="8" t="s">
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="7" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="8" t="s">
+      <c r="B184" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="B179" s="8" t="s">
+      <c r="C184" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="C179" s="8" t="s">
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="7" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="8" t="s">
+      <c r="B185" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="B180" s="8" t="s">
+      <c r="C185" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="C180" s="8" t="s">
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="7" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="8" t="s">
+      <c r="B186" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="B181" s="8" t="s">
+      <c r="C186" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="C181" s="8" t="s">
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="7" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="8" t="s">
+      <c r="B187" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="B182" s="8" t="s">
+      <c r="C187" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="C182" s="8" t="s">
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="7" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="8" t="s">
+      <c r="B188" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="B183" s="8" t="s">
+      <c r="C188" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="C183" s="8" t="s">
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="F183" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="8" t="s">
+      <c r="B189" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="B184" s="8" t="s">
+      <c r="C189" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="C184" s="8" t="s">
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="8" t="s">
+      <c r="B190" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="B185" s="8" t="s">
+      <c r="C190" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="C185" s="8" t="s">
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="F185" s="5"/>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="8" t="s">
+      <c r="B191" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="B186" s="8" t="s">
+      <c r="C191" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="C186" s="8" t="s">
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="F186" s="5" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
+      <c r="B192" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="B187" s="8" t="s">
+      <c r="C192" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="C187" s="8" t="s">
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="F187" s="5"/>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="8" t="s">
+      <c r="B193" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="B188" s="8" t="s">
+      <c r="C193" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="C188" s="8" t="s">
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="7" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="8" t="s">
+      <c r="B194" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="B189" s="8" t="s">
+      <c r="C194" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="C189" s="8" t="s">
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="F189" s="5"/>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="8" t="s">
+      <c r="B195" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="B190" s="8" t="s">
+      <c r="C195" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="C190" s="8" t="s">
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="7" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="8" t="s">
+      <c r="B196" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="B191" s="8" t="s">
+      <c r="C196" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="C191" s="8" t="s">
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="F191" s="5"/>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="8" t="s">
+      <c r="B197" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="B192" s="8" t="s">
+      <c r="C197" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="C192" s="8" t="s">
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="F192" s="5" t="s">
+      <c r="B198" s="7" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="8" t="s">
+      <c r="C198" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="B193" s="8" t="s">
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="C193" s="8" t="s">
+      <c r="B199" s="7" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="8" t="s">
+      <c r="C199" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="B194" s="8" t="s">
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="C194" s="8" t="s">
+      <c r="B200" s="7" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="8" t="s">
+      <c r="C200" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="B195" s="8" t="s">
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="C195" s="8" t="s">
+      <c r="B201" s="7" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="8" t="s">
+      <c r="C201" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="B196" s="8" t="s">
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="C196" s="8" t="s">
+      <c r="B202" s="7" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="8" t="s">
+      <c r="C202" s="7" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="B197" s="8" t="s">
+      <c r="B203" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="C197" s="8" t="s">
+      <c r="C203" s="7" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="8" t="s">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="B198" s="8" t="s">
+      <c r="B204" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="C198" s="8" t="s">
+      <c r="C204" s="7" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="8" t="s">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="B199" s="8" t="s">
+      <c r="B205" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="C199" s="8" t="s">
+      <c r="C205" s="7" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="8" t="s">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="B200" s="8" t="s">
+      <c r="B206" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="C200" s="8" t="s">
+      <c r="C206" s="7" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="8" t="s">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="B201" s="8" t="s">
+      <c r="B207" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="C201" s="8" t="s">
+      <c r="C207" s="7" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="8" t="s">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="B202" s="8" t="s">
+      <c r="B208" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="C202" s="8" t="s">
+      <c r="C208" s="7" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="8" t="s">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="B203" s="8" t="s">
+      <c r="B209" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="C203" s="8" t="s">
+      <c r="C209" s="7" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="8" t="s">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="B204" s="8" t="s">
+      <c r="B210" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="C204" s="8" t="s">
+      <c r="C210" s="7" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="8" t="s">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="B205" s="8" t="s">
+      <c r="B211" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="C205" s="8" t="s">
+      <c r="C211" s="7" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="8" t="s">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="B206" s="8" t="s">
+      <c r="B212" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="C212" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="C206" s="8" t="s">
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="7" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="8" t="s">
+      <c r="B213" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="B207" s="8" t="s">
+      <c r="C213" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="C207" s="8" t="s">
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="B225" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="F207" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="8" t="s">
-        <v>635</v>
-      </c>
-      <c r="B208" s="8" t="s">
-        <v>636</v>
-      </c>
-      <c r="C208" s="8" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="8" t="s">
-        <v>638</v>
-      </c>
-      <c r="B209" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="C209" s="8" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="8" t="s">
-        <v>641</v>
-      </c>
-      <c r="B210" s="8" t="s">
-        <v>642</v>
-      </c>
-      <c r="C210" s="8" t="s">
-        <v>643</v>
-      </c>
-      <c r="F210" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="8" t="s">
-        <v>644</v>
-      </c>
-      <c r="B211" s="8" t="s">
-        <v>645</v>
-      </c>
-      <c r="C211" s="8" t="s">
-        <v>646</v>
-      </c>
-      <c r="F211" s="5" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="8" t="s">
-        <v>647</v>
-      </c>
-      <c r="B212" s="8" t="s">
-        <v>648</v>
-      </c>
-      <c r="C212" s="8" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="8" t="s">
-        <v>650</v>
-      </c>
-      <c r="B213" s="8" t="s">
-        <v>651</v>
-      </c>
-      <c r="C213" s="8" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="8" t="s">
-        <v>653</v>
-      </c>
-      <c r="B214" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="C214" s="8" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="8" t="s">
-        <v>656</v>
-      </c>
-      <c r="B215" s="8" t="s">
-        <v>657</v>
-      </c>
-      <c r="C215" s="8" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="8" t="s">
-        <v>659</v>
-      </c>
-      <c r="B216" s="8" t="s">
-        <v>660</v>
-      </c>
-      <c r="C216" s="8" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="8" t="s">
-        <v>662</v>
-      </c>
-      <c r="B217" s="8" t="s">
-        <v>663</v>
-      </c>
-      <c r="C217" s="8" t="s">
-        <v>664</v>
-      </c>
-      <c r="F217" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="8" t="s">
-        <v>665</v>
-      </c>
-      <c r="B218" s="8" t="s">
-        <v>666</v>
-      </c>
-      <c r="C218" s="8" t="s">
-        <v>667</v>
-      </c>
-      <c r="F218" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="8" t="s">
+      <c r="C225" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="B219" s="8" t="s">
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="7" t="s">
         <v>669</v>
       </c>
-      <c r="C219" s="8" t="s">
+      <c r="B226" s="7" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="8" t="s">
+      <c r="C226" s="7" t="s">
         <v>671</v>
       </c>
-      <c r="B220" s="8" t="s">
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="7" t="s">
         <v>672</v>
       </c>
-      <c r="C220" s="8" t="s">
+      <c r="B227" s="7" t="s">
         <v>673</v>
       </c>
-      <c r="F220" s="5" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="8" t="s">
+      <c r="C227" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="B221" s="8" t="s">
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="C221" s="8" t="s">
+      <c r="B228" s="7" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="8" t="s">
+      <c r="C228" s="7" t="s">
         <v>677</v>
       </c>
-      <c r="B222" s="8" t="s">
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="C222" s="8" t="s">
+      <c r="B229" s="7" t="s">
         <v>679</v>
       </c>
-      <c r="F222" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" s="8" t="s">
+      <c r="C229" s="7" t="s">
         <v>680</v>
       </c>
-      <c r="B223" s="8" t="s">
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="7" t="s">
         <v>681</v>
       </c>
-      <c r="C223" s="8" t="s">
+      <c r="B230" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="F223" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" s="8" t="s">
+      <c r="C230" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="B224" s="8" t="s">
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="7" t="s">
         <v>684</v>
       </c>
-      <c r="C224" s="8" t="s">
+      <c r="B231" s="7" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="8" t="s">
+      <c r="C231" s="7" t="s">
         <v>686</v>
       </c>
-      <c r="B225" s="8" t="s">
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="7" t="s">
         <v>687</v>
       </c>
-      <c r="C225" s="8" t="s">
+      <c r="B232" s="7" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="8" t="s">
+      <c r="C232" s="7" t="s">
         <v>689</v>
       </c>
-      <c r="B226" s="8" t="s">
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="7" t="s">
         <v>690</v>
       </c>
-      <c r="C226" s="8" t="s">
+      <c r="B233" s="7" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="8" t="s">
+      <c r="C233" s="7" t="s">
         <v>692</v>
       </c>
-      <c r="B227" s="8" t="s">
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="7" t="s">
         <v>693</v>
       </c>
-      <c r="C227" s="8" t="s">
+      <c r="B234" s="7" t="s">
         <v>694</v>
       </c>
-      <c r="F227" s="9" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="8" t="s">
+      <c r="C234" s="7" t="s">
         <v>695</v>
       </c>
-      <c r="B228" s="8" t="s">
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="C228" s="8" t="s">
+      <c r="B235" s="7" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" s="8" t="s">
+      <c r="C235" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="B229" s="8" t="s">
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="7" t="s">
         <v>699</v>
       </c>
-      <c r="C229" s="8" t="s">
+      <c r="B236" s="7" t="s">
         <v>700</v>
       </c>
-      <c r="F229" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="8" t="s">
+      <c r="C236" s="7" t="s">
         <v>701</v>
       </c>
-      <c r="B230" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="C230" s="8" t="s">
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="7" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="8" t="s">
+      <c r="B237" s="7" t="s">
         <v>703</v>
       </c>
-      <c r="B231" s="8" t="s">
+      <c r="C237" s="7" t="s">
         <v>704</v>
       </c>
-      <c r="C231" s="8" t="s">
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="7" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="8" t="s">
+      <c r="B238" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="C238" s="7" t="s">
         <v>707</v>
       </c>
-      <c r="B232" s="8" t="s">
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="7" t="s">
         <v>708</v>
       </c>
-      <c r="C232" s="8" t="s">
+      <c r="B239" s="7" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="8" t="s">
+      <c r="C239" s="7" t="s">
         <v>710</v>
       </c>
-      <c r="B233" s="8" t="s">
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="7" t="s">
         <v>711</v>
       </c>
-      <c r="C233" s="8" t="s">
+      <c r="B240" s="7" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="8" t="s">
+      <c r="C240" s="7" t="s">
         <v>713</v>
       </c>
-      <c r="B234" s="8" t="s">
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="7" t="s">
         <v>714</v>
       </c>
-      <c r="C234" s="8" t="s">
+      <c r="B241" s="7" t="s">
         <v>715</v>
       </c>
-      <c r="F234" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="8" t="s">
+      <c r="C241" s="7" t="s">
         <v>716</v>
       </c>
-      <c r="B235" s="8" t="s">
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="C235" s="8" t="s">
+      <c r="B242" s="7" t="s">
         <v>718</v>
       </c>
-      <c r="F235" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="8" t="s">
+      <c r="C242" s="7" t="s">
         <v>719</v>
       </c>
-      <c r="B236" s="8" t="s">
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="C236" s="8" t="s">
+      <c r="B243" s="7" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" s="8" t="s">
+      <c r="C243" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="B237" s="8" t="s">
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="7" t="s">
         <v>723</v>
       </c>
-      <c r="C237" s="8" t="s">
+      <c r="B244" s="7" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="8" t="s">
+      <c r="C244" s="7" t="s">
         <v>725</v>
       </c>
-      <c r="B238" s="8" t="s">
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="7" t="s">
         <v>726</v>
       </c>
-      <c r="C238" s="8" t="s">
+      <c r="B245" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="F238" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="8" t="s">
+      <c r="C245" s="7" t="s">
         <v>728</v>
       </c>
-      <c r="B239" s="8" t="s">
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="7" t="s">
         <v>729</v>
       </c>
-      <c r="C239" s="8" t="s">
+      <c r="B246" s="7" t="s">
         <v>730</v>
       </c>
-      <c r="F239" s="5" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="8" t="s">
+      <c r="C246" s="7" t="s">
         <v>731</v>
       </c>
-      <c r="B240" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="C240" s="8" t="s">
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="7" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="8" t="s">
+      <c r="B247" s="7" t="s">
         <v>733</v>
       </c>
-      <c r="B241" s="8" t="s">
+      <c r="C247" s="7" t="s">
         <v>734</v>
       </c>
-      <c r="C241" s="8" t="s">
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="7" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="8" t="s">
+      <c r="B248" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="B242" s="8" t="s">
+      <c r="C248" s="7" t="s">
         <v>737</v>
       </c>
-      <c r="C242" s="8" t="s">
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="7" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="8" t="s">
+      <c r="B249" s="7" t="s">
         <v>739</v>
       </c>
-      <c r="B243" s="8" t="s">
+      <c r="C249" s="7" t="s">
         <v>740</v>
       </c>
-      <c r="C243" s="8" t="s">
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="7" t="s">
         <v>741</v>
       </c>
-      <c r="F243" s="5" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="8" t="s">
+      <c r="B250" s="7" t="s">
         <v>742</v>
       </c>
-      <c r="B244" s="8" t="s">
+      <c r="C250" s="7" t="s">
         <v>743</v>
       </c>
-      <c r="C244" s="8" t="s">
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="7" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="8" t="s">
+      <c r="B251" s="7" t="s">
         <v>745</v>
       </c>
-      <c r="B245" s="8" t="s">
+      <c r="C251" s="7" t="s">
         <v>746</v>
       </c>
-      <c r="C245" s="8" t="s">
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="7" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="8" t="s">
+      <c r="B252" s="7" t="s">
         <v>748</v>
       </c>
-      <c r="B246" s="8" t="s">
+      <c r="C252" s="7" t="s">
         <v>749</v>
       </c>
-      <c r="C246" s="8" t="s">
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="7" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="8" t="s">
+      <c r="B253" s="7" t="s">
         <v>751</v>
       </c>
-      <c r="B247" s="8" t="s">
+      <c r="C253" s="7" t="s">
         <v>752</v>
       </c>
-      <c r="C247" s="8" t="s">
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="7" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" s="8" t="s">
+      <c r="B254" s="7" t="s">
         <v>754</v>
       </c>
-      <c r="B248" s="8" t="s">
-        <v>706</v>
-      </c>
-      <c r="C248" s="8" t="s">
+      <c r="C254" s="7" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="8" t="s">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="7" t="s">
         <v>756</v>
       </c>
-      <c r="B249" s="8" t="s">
+      <c r="B255" s="7" t="s">
         <v>757</v>
       </c>
-      <c r="C249" s="8" t="s">
+      <c r="C255" s="7" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="8" t="s">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="7" t="s">
         <v>759</v>
       </c>
-      <c r="B250" s="8" t="s">
+      <c r="B256" s="7" t="s">
         <v>760</v>
       </c>
-      <c r="C250" s="8" t="s">
+      <c r="C256" s="7" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="8" t="s">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="7" t="s">
         <v>762</v>
       </c>
-      <c r="B251" s="8" t="s">
+      <c r="B257" s="7" t="s">
         <v>763</v>
       </c>
-      <c r="C251" s="8" t="s">
+      <c r="C257" s="7" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="8" t="s">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="7" t="s">
         <v>765</v>
       </c>
-      <c r="B252" s="8" t="s">
+      <c r="B258" s="7" t="s">
         <v>766</v>
       </c>
-      <c r="C252" s="8" t="s">
+      <c r="C258" s="7" t="s">
         <v>767</v>
       </c>
-      <c r="F252" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="8" t="s">
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="7" t="s">
         <v>768</v>
       </c>
-      <c r="B253" s="8" t="s">
+      <c r="B259" s="7" t="s">
         <v>769</v>
       </c>
-      <c r="C253" s="8" t="s">
+      <c r="C259" s="7" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="8" t="s">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="7" t="s">
         <v>771</v>
       </c>
-      <c r="B254" s="8" t="s">
+      <c r="B260" s="7" t="s">
         <v>772</v>
       </c>
-      <c r="C254" s="8" t="s">
+      <c r="C260" s="7" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="8" t="s">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="B255" s="8" t="s">
+      <c r="B261" s="7" t="s">
         <v>775</v>
       </c>
-      <c r="C255" s="8" t="s">
+      <c r="C261" s="7" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="8" t="s">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="7" t="s">
         <v>777</v>
       </c>
-      <c r="B256" s="8" t="s">
+      <c r="B262" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="C262" s="7" t="s">
         <v>778</v>
       </c>
-      <c r="C256" s="8" t="s">
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="7" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A257" s="8" t="s">
+      <c r="B263" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="B257" s="8" t="s">
+      <c r="C263" s="7" t="s">
         <v>781</v>
       </c>
-      <c r="C257" s="8" t="s">
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="7" t="s">
         <v>782</v>
       </c>
-      <c r="F257" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="G257" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A258" s="8" t="s">
+      <c r="B264" s="7" t="s">
         <v>783</v>
       </c>
-      <c r="B258" s="8" t="s">
+      <c r="C264" s="7" t="s">
         <v>784</v>
       </c>
-      <c r="C258" s="8" t="s">
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="7" t="s">
         <v>785</v>
       </c>
-      <c r="F258" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A259" s="8" t="s">
+      <c r="B265" s="7" t="s">
         <v>786</v>
       </c>
-      <c r="B259" s="8" t="s">
+      <c r="C265" s="7" t="s">
         <v>787</v>
       </c>
-      <c r="C259" s="8" t="s">
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="7" t="s">
         <v>788</v>
       </c>
-      <c r="D259" s="5" t="s">
+      <c r="B266" s="7" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A260" s="8" t="s">
+      <c r="C266" s="7" t="s">
         <v>790</v>
       </c>
-      <c r="B260" s="8" t="s">
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="7" t="s">
         <v>791</v>
       </c>
-      <c r="C260" s="8" t="s">
+      <c r="B267" s="7" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A261" s="8" t="s">
+      <c r="C267" s="7" t="s">
         <v>793</v>
       </c>
-      <c r="B261" s="8" t="s">
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="C261" s="8" t="s">
+      <c r="B268" s="7" t="s">
         <v>795</v>
       </c>
-      <c r="F261" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A262" s="8" t="s">
+      <c r="C268" s="7" t="s">
         <v>796</v>
       </c>
-      <c r="B262" s="8" t="s">
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="7" t="s">
         <v>797</v>
       </c>
-      <c r="C262" s="8" t="s">
+      <c r="B269" s="7" t="s">
         <v>798</v>
       </c>
-      <c r="F262" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="G262" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A263" s="8" t="s">
+      <c r="C269" s="7" t="s">
         <v>799</v>
       </c>
-      <c r="B263" s="8" t="s">
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="7" t="s">
         <v>800</v>
       </c>
-      <c r="C263" s="8" t="s">
+      <c r="B270" s="7" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A264" s="8" t="s">
+      <c r="C270" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="B264" s="8" t="s">
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="8" t="s">
         <v>803</v>
       </c>
-      <c r="C264" s="8" t="s">
+      <c r="B271" s="8" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A265" s="8" t="s">
+      <c r="C271" s="8" t="s">
         <v>805</v>
       </c>
-      <c r="B265" s="8" t="s">
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="8" t="s">
         <v>806</v>
       </c>
-      <c r="C265" s="8" t="s">
+      <c r="B272" s="8" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A266" s="8" t="s">
+      <c r="C272" s="8" t="s">
         <v>808</v>
       </c>
-      <c r="B266" s="8" t="s">
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="8" t="s">
         <v>809</v>
       </c>
-      <c r="C266" s="8" t="s">
+      <c r="B273" s="8" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A267" s="8" t="s">
+      <c r="C273" s="8" t="s">
         <v>811</v>
       </c>
-      <c r="B267" s="8" t="s">
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="8" t="s">
         <v>812</v>
       </c>
-      <c r="C267" s="8" t="s">
+      <c r="B274" s="8" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A268" s="8" t="s">
+      <c r="C274" s="8" t="s">
         <v>814</v>
       </c>
-      <c r="B268" s="8" t="s">
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="8" t="s">
         <v>815</v>
       </c>
-      <c r="C268" s="8" t="s">
+      <c r="B275" s="8" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A269" s="8" t="s">
+      <c r="C275" s="8" t="s">
         <v>817</v>
       </c>
-      <c r="B269" s="8" t="s">
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="8" t="s">
         <v>818</v>
       </c>
-      <c r="C269" s="8" t="s">
+      <c r="B276" s="8" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A270" s="8" t="s">
+      <c r="C276" s="8" t="s">
         <v>820</v>
       </c>
-      <c r="B270" s="8" t="s">
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="8" t="s">
         <v>821</v>
       </c>
-      <c r="C270" s="8" t="s">
+      <c r="B277" s="8" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A271" s="8" t="s">
+      <c r="C277" s="8" t="s">
         <v>823</v>
       </c>
-      <c r="B271" s="8" t="s">
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="8" t="s">
         <v>824</v>
       </c>
-      <c r="C271" s="8" t="s">
+      <c r="B278" s="8" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A272" s="8" t="s">
+      <c r="C278" s="8" t="s">
         <v>826</v>
       </c>
-      <c r="B272" s="8" t="s">
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="8" t="s">
         <v>827</v>
       </c>
-      <c r="C272" s="8" t="s">
+      <c r="B279" s="8" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" s="8" t="s">
+      <c r="C279" s="8" t="s">
         <v>829</v>
       </c>
-      <c r="B273" s="8" t="s">
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="8" t="s">
         <v>830</v>
       </c>
-      <c r="C273" s="8" t="s">
+      <c r="B280" s="8" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" s="8" t="s">
+      <c r="C280" s="8" t="s">
         <v>832</v>
       </c>
-      <c r="B274" s="8" t="s">
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="8" t="s">
         <v>833</v>
       </c>
-      <c r="C274" s="8" t="s">
+      <c r="B281" s="8" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" s="8" t="s">
+      <c r="C281" s="8" t="s">
         <v>835</v>
       </c>
-      <c r="B275" s="8" t="s">
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="8" t="s">
         <v>836</v>
       </c>
-      <c r="C275" s="8" t="s">
+      <c r="B282" s="8" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="8" t="s">
+      <c r="C282" s="8" t="s">
         <v>838</v>
       </c>
-      <c r="B276" s="8" t="s">
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="8" t="s">
         <v>839</v>
       </c>
-      <c r="C276" s="8" t="s">
+      <c r="B283" s="8" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" s="8" t="s">
+      <c r="C283" s="8" t="s">
         <v>841</v>
       </c>
-      <c r="B277" s="8" t="s">
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="C277" s="8" t="s">
+      <c r="B284" s="8" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" s="8" t="s">
+      <c r="C284" s="8" t="s">
         <v>844</v>
       </c>
-      <c r="B278" s="8" t="s">
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="C278" s="8" t="s">
+      <c r="B285" s="8" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" s="8" t="s">
+      <c r="C285" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="B279" s="8" t="s">
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="8" t="s">
         <v>848</v>
       </c>
-      <c r="C279" s="8" t="s">
+      <c r="B286" s="8" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" s="8" t="s">
+      <c r="C286" s="8" t="s">
         <v>850</v>
       </c>
-      <c r="B280" s="8" t="s">
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="8" t="s">
         <v>851</v>
       </c>
-      <c r="C280" s="8" t="s">
+      <c r="B287" s="8" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281" s="8" t="s">
+      <c r="C287" s="8" t="s">
         <v>853</v>
       </c>
-      <c r="B281" s="8" t="s">
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="8" t="s">
         <v>854</v>
       </c>
-      <c r="C281" s="8" t="s">
+      <c r="B288" s="8" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A282" s="8" t="s">
+      <c r="C288" s="8" t="s">
         <v>856</v>
       </c>
-      <c r="B282" s="8" t="s">
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="8" t="s">
         <v>857</v>
       </c>
-      <c r="C282" s="8" t="s">
+      <c r="B289" s="8" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283" s="8" t="s">
+      <c r="C289" s="8" t="s">
         <v>859</v>
       </c>
-      <c r="B283" s="8" t="s">
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="8" t="s">
         <v>860</v>
       </c>
-      <c r="C283" s="8" t="s">
+      <c r="B290" s="8" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A284" s="8" t="s">
+      <c r="C290" s="8" t="s">
         <v>862</v>
       </c>
-      <c r="B284" s="8" t="s">
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="8" t="s">
         <v>863</v>
       </c>
-      <c r="C284" s="8" t="s">
+      <c r="B291" s="8" t="s">
         <v>864</v>
       </c>
-      <c r="F284" s="5" t="s">
+      <c r="C291" s="8" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" s="8" t="s">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="8" t="s">
         <v>866</v>
       </c>
-      <c r="B285" s="8" t="s">
+      <c r="B292" s="8" t="s">
         <v>867</v>
       </c>
-      <c r="C285" s="8" t="s">
+      <c r="C292" s="8" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" s="8" t="s">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="8" t="s">
         <v>869</v>
       </c>
-      <c r="B286" s="8" t="s">
+      <c r="B293" s="8" t="s">
         <v>870</v>
       </c>
-      <c r="C286" s="8" t="s">
+      <c r="C293" s="8" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287" s="8" t="s">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="8" t="s">
         <v>872</v>
       </c>
-      <c r="B287" s="8" t="s">
+      <c r="B294" s="8" t="s">
         <v>873</v>
       </c>
-      <c r="C287" s="8" t="s">
+      <c r="C294" s="8" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288" s="8" t="s">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="8" t="s">
         <v>875</v>
       </c>
-      <c r="B288" s="8" t="s">
+      <c r="B295" s="8" t="s">
         <v>876</v>
       </c>
-      <c r="C288" s="8" t="s">
+      <c r="C295" s="8" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A289" s="8" t="s">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="8" t="s">
         <v>878</v>
       </c>
-      <c r="B289" s="8" t="s">
+      <c r="B296" s="8" t="s">
         <v>879</v>
       </c>
-      <c r="C289" s="8" t="s">
+      <c r="C296" s="8" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A290" s="8" t="s">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="8" t="s">
         <v>881</v>
       </c>
-      <c r="B290" s="8" t="s">
+      <c r="B297" s="8" t="s">
         <v>882</v>
       </c>
-      <c r="C290" s="8" t="s">
+      <c r="C297" s="8" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A291" s="8" t="s">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="8" t="s">
         <v>884</v>
       </c>
-      <c r="B291" s="8" t="s">
+      <c r="B298" s="8" t="s">
         <v>885</v>
       </c>
-      <c r="C291" s="8" t="s">
+      <c r="C298" s="8" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A292" s="8" t="s">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="8" t="s">
         <v>887</v>
       </c>
-      <c r="B292" s="8" t="s">
-        <v>615</v>
-      </c>
-      <c r="C292" s="8" t="s">
+      <c r="B299" s="8" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A293" s="8" t="s">
+      <c r="C299" s="8" t="s">
         <v>889</v>
       </c>
-      <c r="B293" s="8" t="s">
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="8" t="s">
         <v>890</v>
       </c>
-      <c r="C293" s="8" t="s">
+      <c r="B300" s="8" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A294" s="8" t="s">
+      <c r="C300" s="8" t="s">
         <v>892</v>
       </c>
-      <c r="B294" s="8" t="s">
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="8" t="s">
         <v>893</v>
       </c>
-      <c r="C294" s="8" t="s">
+      <c r="B301" s="8" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A295" s="8" t="s">
+      <c r="C301" s="8" t="s">
         <v>895</v>
       </c>
-      <c r="B295" s="8" t="s">
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="8" t="s">
         <v>896</v>
       </c>
-      <c r="C295" s="8" t="s">
+      <c r="B302" s="8" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296" s="8" t="s">
+      <c r="C302" s="8" t="s">
         <v>898</v>
       </c>
-      <c r="B296" s="8" t="s">
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="8" t="s">
         <v>899</v>
       </c>
-      <c r="C296" s="8" t="s">
+      <c r="B303" s="8" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297" s="8" t="s">
+      <c r="C303" s="8" t="s">
         <v>901</v>
       </c>
-      <c r="B297" s="8" t="s">
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="8" t="s">
         <v>902</v>
       </c>
-      <c r="C297" s="8" t="s">
+      <c r="B304" s="8" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A298" s="8" t="s">
+      <c r="C304" s="8" t="s">
         <v>904</v>
       </c>
-      <c r="B298" s="8" t="s">
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="8" t="s">
         <v>905</v>
       </c>
-      <c r="C298" s="8" t="s">
+      <c r="B305" s="8" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A299" s="8" t="s">
+      <c r="C305" s="8" t="s">
         <v>907</v>
       </c>
-      <c r="B299" s="8" t="s">
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="8" t="s">
         <v>908</v>
       </c>
-      <c r="C299" s="8" t="s">
+      <c r="B306" s="8" t="s">
         <v>909</v>
       </c>
-      <c r="F299" s="5" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300" s="8" t="s">
+      <c r="C306" s="8" t="s">
         <v>910</v>
       </c>
-      <c r="B300" s="8" t="s">
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="8" t="s">
         <v>911</v>
       </c>
-      <c r="C300" s="8" t="s">
+      <c r="B307" s="8" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A301" s="8" t="s">
+      <c r="C307" s="8" t="s">
         <v>913</v>
       </c>
-      <c r="B301" s="8" t="s">
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="8" t="s">
         <v>914</v>
       </c>
-      <c r="C301" s="8" t="s">
+      <c r="B308" s="8" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A302" s="10" t="s">
+      <c r="C308" s="8" t="s">
         <v>916</v>
       </c>
-      <c r="B302" s="10" t="s">
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="8" t="s">
         <v>917</v>
       </c>
-      <c r="C302" s="10" t="s">
+      <c r="B309" s="8" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A303" s="10" t="s">
+      <c r="C309" s="8" t="s">
         <v>919</v>
       </c>
-      <c r="B303" s="10" t="s">
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="8" t="s">
         <v>920</v>
       </c>
-      <c r="C303" s="10" t="s">
+      <c r="B310" s="8" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A304" s="10" t="s">
+      <c r="C310" s="8" t="s">
         <v>922</v>
       </c>
-      <c r="B304" s="10" t="s">
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="8" t="s">
         <v>923</v>
       </c>
-      <c r="C304" s="10" t="s">
+      <c r="B311" s="8" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A305" s="10" t="s">
+      <c r="C311" s="8" t="s">
         <v>925</v>
       </c>
-      <c r="B305" s="10" t="s">
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="8" t="s">
         <v>926</v>
       </c>
-      <c r="C305" s="10" t="s">
+      <c r="B312" s="8" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A306" s="10" t="s">
+      <c r="C312" s="8" t="s">
         <v>928</v>
       </c>
-      <c r="B306" s="10" t="s">
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="8" t="s">
         <v>929</v>
       </c>
-      <c r="C306" s="10" t="s">
+      <c r="B313" s="8" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A307" s="10" t="s">
+      <c r="C313" s="8" t="s">
         <v>931</v>
       </c>
-      <c r="B307" s="10" t="s">
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="8" t="s">
         <v>932</v>
       </c>
-      <c r="C307" s="10" t="s">
+      <c r="B314" s="8" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A308" s="10" t="s">
+      <c r="C314" s="8" t="s">
         <v>934</v>
       </c>
-      <c r="B308" s="10" t="s">
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="8" t="s">
         <v>935</v>
       </c>
-      <c r="C308" s="10" t="s">
+      <c r="B315" s="8" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A309" s="10" t="s">
+      <c r="C315" s="8" t="s">
         <v>937</v>
       </c>
-      <c r="B309" s="10" t="s">
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="8" t="s">
         <v>938</v>
       </c>
-      <c r="C309" s="10" t="s">
+      <c r="B316" s="8" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A310" s="10" t="s">
+      <c r="C316" s="8" t="s">
         <v>940</v>
       </c>
-      <c r="B310" s="10" t="s">
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="8" t="s">
         <v>941</v>
       </c>
-      <c r="C310" s="10" t="s">
+      <c r="B317" s="8" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A311" s="10" t="s">
+      <c r="C317" s="8" t="s">
         <v>943</v>
       </c>
-      <c r="B311" s="10" t="s">
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="8" t="s">
         <v>944</v>
       </c>
-      <c r="C311" s="10" t="s">
+      <c r="B318" s="8" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A312" s="10" t="s">
+      <c r="C318" s="8" t="s">
         <v>946</v>
       </c>
-      <c r="B312" s="10" t="s">
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="8" t="s">
         <v>947</v>
       </c>
-      <c r="C312" s="10" t="s">
+      <c r="B319" s="8" t="s">
         <v>948</v>
       </c>
-      <c r="F312" s="5" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A313" s="10" t="s">
+      <c r="C319" s="8" t="s">
         <v>949</v>
       </c>
-      <c r="B313" s="10" t="s">
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="8" t="s">
         <v>950</v>
       </c>
-      <c r="C313" s="10" t="s">
+      <c r="B320" s="8" t="s">
         <v>951</v>
       </c>
-      <c r="F313" s="5"/>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A314" s="10" t="s">
+      <c r="C320" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="B314" s="10" t="s">
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="8" t="s">
         <v>953</v>
       </c>
-      <c r="C314" s="10" t="s">
+      <c r="B321" s="8" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A315" s="10" t="s">
+      <c r="C321" s="8" t="s">
         <v>955</v>
       </c>
-      <c r="B315" s="10" t="s">
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="8" t="s">
         <v>956</v>
       </c>
-      <c r="C315" s="10" t="s">
+      <c r="B322" s="8" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A316" s="10" t="s">
+      <c r="C322" s="8" t="s">
         <v>958</v>
       </c>
-      <c r="B316" s="10" t="s">
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="8" t="s">
         <v>959</v>
       </c>
-      <c r="C316" s="10" t="s">
+      <c r="B323" s="8" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A317" s="10" t="s">
+      <c r="C323" s="8" t="s">
         <v>961</v>
       </c>
-      <c r="B317" s="10" t="s">
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="8" t="s">
         <v>962</v>
       </c>
-      <c r="C317" s="10" t="s">
+      <c r="B324" s="8" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A318" s="10" t="s">
+      <c r="C324" s="8" t="s">
         <v>964</v>
       </c>
-      <c r="B318" s="10" t="s">
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="8" t="s">
         <v>965</v>
       </c>
-      <c r="C318" s="10" t="s">
+      <c r="B325" s="8" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A319" s="10" t="s">
+      <c r="C325" s="8" t="s">
         <v>967</v>
       </c>
-      <c r="B319" s="10" t="s">
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="8" t="s">
         <v>968</v>
       </c>
-      <c r="C319" s="10" t="s">
+      <c r="B326" s="8" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A320" s="10" t="s">
+      <c r="C326" s="8" t="s">
         <v>970</v>
       </c>
-      <c r="B320" s="10" t="s">
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="8" t="s">
         <v>971</v>
       </c>
-      <c r="C320" s="10" t="s">
+      <c r="B327" s="8" t="s">
         <v>972</v>
       </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A321" s="10" t="s">
+      <c r="C327" s="8" t="s">
         <v>973</v>
       </c>
-      <c r="B321" s="10" t="s">
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="C321" s="10" t="s">
+      <c r="B328" s="8" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A322" s="10" t="s">
+      <c r="C328" s="8" t="s">
         <v>976</v>
       </c>
-      <c r="B322" s="10" t="s">
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="8" t="s">
         <v>977</v>
       </c>
-      <c r="C322" s="10" t="s">
+      <c r="B329" s="8" t="s">
         <v>978</v>
       </c>
-      <c r="F322" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A323" s="10" t="s">
+      <c r="C329" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="B323" s="10" t="s">
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="C323" s="10" t="s">
+      <c r="B330" s="8" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A324" s="10" t="s">
+      <c r="C330" s="8" t="s">
         <v>982</v>
       </c>
-      <c r="B324" s="10" t="s">
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="10" t="s">
         <v>983</v>
       </c>
-      <c r="C324" s="10" t="s">
+      <c r="B331" s="10" t="s">
         <v>984</v>
       </c>
-      <c r="F324" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A325" s="10" t="s">
+      <c r="C331" s="10" t="s">
         <v>985</v>
       </c>
-      <c r="B325" s="10" t="s">
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="9" t="s">
         <v>986</v>
       </c>
-      <c r="C325" s="10" t="s">
+      <c r="B332" s="9" t="s">
         <v>987</v>
       </c>
-      <c r="F325" s="5"/>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A326" s="10" t="s">
+      <c r="C332" s="9" t="s">
         <v>988</v>
       </c>
-      <c r="B326" s="10" t="s">
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="10" t="s">
         <v>989</v>
       </c>
-      <c r="C326" s="10" t="s">
+      <c r="B333" s="10" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A327" s="10" t="s">
+      <c r="C333" s="10" t="s">
         <v>991</v>
       </c>
-      <c r="B327" s="10" t="s">
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="10" t="s">
         <v>992</v>
       </c>
-      <c r="C327" s="10" t="s">
+      <c r="B334" s="10" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A328" s="10" t="s">
+      <c r="C334" s="10" t="s">
         <v>994</v>
       </c>
-      <c r="B328" s="10" t="s">
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="9" t="s">
         <v>995</v>
       </c>
-      <c r="C328" s="10" t="s">
+      <c r="B335" s="9" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A329" s="10" t="s">
+      <c r="C335" s="11" t="s">
         <v>997</v>
       </c>
-      <c r="B329" s="10" t="s">
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="9" t="s">
         <v>998</v>
       </c>
-      <c r="C329" s="10" t="s">
+      <c r="B336" s="9" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A330" s="10" t="s">
+      <c r="C336" s="11" t="s">
         <v>1000</v>
       </c>
-      <c r="B330" s="10" t="s">
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="9" t="s">
         <v>1001</v>
       </c>
-      <c r="C330" s="10" t="s">
+      <c r="B337" s="9" t="s">
         <v>1002</v>
       </c>
-      <c r="F330" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A331" s="10" t="s">
+      <c r="C337" s="9" t="s">
         <v>1003</v>
       </c>
-      <c r="B331" s="10" t="s">
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="10" t="s">
         <v>1004</v>
       </c>
-      <c r="C331" s="10" t="s">
+      <c r="B338" s="10" t="s">
         <v>1005</v>
       </c>
-      <c r="F331" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A332" s="10" t="s">
+      <c r="C338" s="10" t="s">
         <v>1006</v>
       </c>
-      <c r="B332" s="10" t="s">
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="9" t="s">
         <v>1007</v>
       </c>
-      <c r="C332" s="10" t="s">
+      <c r="B339" s="9" t="s">
         <v>1008</v>
       </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A333" s="10" t="s">
+      <c r="C339" s="9" t="s">
         <v>1009</v>
       </c>
-      <c r="B333" s="10" t="s">
+    </row>
+    <row r="340" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A340" s="12" t="s">
         <v>1010</v>
       </c>
-      <c r="C333" s="10" t="s">
+      <c r="B340" s="12" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A334" s="10" t="s">
+      <c r="C340" s="12" t="s">
         <v>1012</v>
       </c>
-      <c r="B334" s="10" t="s">
+    </row>
+    <row r="341" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A341" s="12" t="s">
         <v>1013</v>
       </c>
-      <c r="C334" s="10" t="s">
+      <c r="B341" s="12" t="s">
         <v>1014</v>
       </c>
-      <c r="F334" s="5" t="s">
+      <c r="C341" s="12" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A335" s="10" t="s">
+    <row r="342" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A342" s="12" t="s">
         <v>1016</v>
       </c>
-      <c r="B335" s="10" t="s">
+      <c r="B342" s="12" t="s">
         <v>1017</v>
       </c>
-      <c r="C335" s="10" t="s">
+      <c r="C342" s="12" t="s">
         <v>1018</v>
       </c>
-      <c r="F335" s="5"/>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A336" s="10" t="s">
+    </row>
+    <row r="343" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A343" s="12" t="s">
         <v>1019</v>
       </c>
-      <c r="B336" s="10" t="s">
+      <c r="B343" s="12" t="s">
         <v>1020</v>
       </c>
-      <c r="C336" s="10" t="s">
+      <c r="C343" s="12" t="s">
         <v>1021</v>
       </c>
-      <c r="F336" s="5"/>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A337" s="10" t="s">
+    </row>
+    <row r="344" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A344" s="12" t="s">
         <v>1022</v>
       </c>
-      <c r="B337" s="10" t="s">
+      <c r="B344" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C344" s="12" t="s">
         <v>1023</v>
       </c>
-      <c r="C337" s="10" t="s">
+    </row>
+    <row r="345" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A345" s="12" t="s">
         <v>1024</v>
       </c>
-      <c r="F337" s="5"/>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A338" s="10" t="s">
+      <c r="B345" s="12" t="s">
         <v>1025</v>
       </c>
-      <c r="B338" s="10" t="s">
+      <c r="C345" s="12" t="s">
         <v>1026</v>
       </c>
-      <c r="C338" s="10" t="s">
+    </row>
+    <row r="346" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A346" s="12" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A339" s="10" t="s">
+      <c r="B346" s="12" t="s">
         <v>1028</v>
       </c>
-      <c r="B339" s="10" t="s">
+      <c r="C346" s="12" t="s">
         <v>1029</v>
       </c>
-      <c r="C339" s="10" t="s">
+    </row>
+    <row r="347" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A347" s="12" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A340" s="10" t="s">
+      <c r="B347" s="12" t="s">
         <v>1031</v>
       </c>
-      <c r="B340" s="10" t="s">
+      <c r="C347" s="12" t="s">
         <v>1032</v>
       </c>
-      <c r="C340" s="10" t="s">
+    </row>
+    <row r="348" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A348" s="12" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A341" s="10" t="s">
+      <c r="B348" s="12" t="s">
         <v>1034</v>
       </c>
-      <c r="B341" s="10" t="s">
+      <c r="C348" s="12" t="s">
         <v>1035</v>
       </c>
-      <c r="C341" s="10" t="s">
+    </row>
+    <row r="349" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A349" s="12" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A342" s="10" t="s">
+      <c r="B349" s="12" t="s">
         <v>1037</v>
       </c>
-      <c r="B342" s="10" t="s">
+      <c r="C349" s="12" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A350" s="12" t="s">
         <v>1038</v>
       </c>
-      <c r="C342" s="10" t="s">
+      <c r="B350" s="12" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A343" s="10" t="s">
+      <c r="C350" s="12" t="s">
         <v>1040</v>
       </c>
-      <c r="B343" s="10" t="s">
+    </row>
+    <row r="351" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A351" s="12" t="s">
         <v>1041</v>
       </c>
-      <c r="C343" s="10" t="s">
+      <c r="B351" s="12" t="s">
         <v>1042</v>
       </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A344" s="10" t="s">
+      <c r="C351" s="12" t="s">
         <v>1043</v>
       </c>
-      <c r="B344" s="10" t="s">
+    </row>
+    <row r="352" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A352" s="12" t="s">
         <v>1044</v>
       </c>
-      <c r="C344" s="10" t="s">
+      <c r="B352" s="12" t="s">
         <v>1045</v>
       </c>
-      <c r="F344" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A345" s="10" t="s">
+      <c r="C352" s="12" t="s">
         <v>1046</v>
       </c>
-      <c r="B345" s="10" t="s">
+    </row>
+    <row r="353" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A353" s="12" t="s">
         <v>1047</v>
       </c>
-      <c r="C345" s="10" t="s">
+      <c r="B353" s="12" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A346" s="10" t="s">
+      <c r="C353" s="12" t="s">
         <v>1049</v>
       </c>
-      <c r="B346" s="10" t="s">
+    </row>
+    <row r="354" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A354" s="12" t="s">
         <v>1050</v>
       </c>
-      <c r="C346" s="10" t="s">
+      <c r="B354" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="C354" s="12" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A355" s="12" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A347" s="10" t="s">
+      <c r="B355" s="12" t="s">
         <v>1052</v>
       </c>
-      <c r="B347" s="10" t="s">
+      <c r="C355" s="12" t="s">
         <v>1053</v>
       </c>
-      <c r="C347" s="10" t="s">
+    </row>
+    <row r="356" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A356" s="12" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A348" s="10" t="s">
+      <c r="B356" s="12" t="s">
         <v>1055</v>
       </c>
-      <c r="B348" s="10" t="s">
+      <c r="C356" s="12" t="s">
         <v>1056</v>
       </c>
-      <c r="C348" s="10" t="s">
+    </row>
+    <row r="357" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A357" s="12" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A349" s="10" t="s">
+      <c r="B357" s="12" t="s">
         <v>1058</v>
       </c>
-      <c r="B349" s="10" t="s">
+      <c r="C357" s="12" t="s">
         <v>1059</v>
       </c>
-      <c r="C349" s="10" t="s">
+    </row>
+    <row r="358" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A358" s="12" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A350" s="10" t="s">
+      <c r="B358" s="12" t="s">
         <v>1061</v>
       </c>
-      <c r="B350" s="10" t="s">
+      <c r="C358" s="13" t="s">
         <v>1062</v>
       </c>
-      <c r="C350" s="10" t="s">
+    </row>
+    <row r="359" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A359" s="13" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A351" s="10" t="s">
+      <c r="B359" s="12" t="s">
         <v>1064</v>
       </c>
-      <c r="B351" s="10" t="s">
+      <c r="C359" s="13" t="s">
         <v>1065</v>
       </c>
-      <c r="C351" s="10" t="s">
+    </row>
+    <row r="360" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A360" s="12" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A352" s="10" t="s">
+      <c r="B360" s="12" t="s">
         <v>1067</v>
       </c>
-      <c r="B352" s="10" t="s">
+      <c r="C360" s="12" t="s">
         <v>1068</v>
       </c>
-      <c r="C352" s="10" t="s">
+    </row>
+    <row r="361" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A361" s="12" t="s">
         <v>1069</v>
       </c>
-      <c r="F352" s="5"/>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A353" s="10" t="s">
+      <c r="B361" s="12" t="s">
         <v>1070</v>
       </c>
-      <c r="B353" s="10" t="s">
+      <c r="C361" s="12" t="s">
         <v>1071</v>
       </c>
-      <c r="C353" s="10" t="s">
+    </row>
+    <row r="362" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A362" s="12" t="s">
         <v>1072</v>
       </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A354" s="10" t="s">
+      <c r="B362" s="12" t="s">
         <v>1073</v>
       </c>
-      <c r="B354" s="10" t="s">
+      <c r="C362" s="12" t="s">
         <v>1074</v>
       </c>
-      <c r="C354" s="10" t="s">
+    </row>
+    <row r="363" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A363" s="12" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A355" s="10" t="s">
+      <c r="B363" s="12" t="s">
         <v>1076</v>
       </c>
-      <c r="B355" s="10" t="s">
+      <c r="C363" s="12" t="s">
         <v>1077</v>
       </c>
-      <c r="C355" s="10" t="s">
+    </row>
+    <row r="364" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A364" s="12" t="s">
         <v>1078</v>
       </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A356" s="10" t="s">
+      <c r="B364" s="12" t="s">
         <v>1079</v>
       </c>
-      <c r="B356" s="10" t="s">
+      <c r="C364" s="12" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A365" s="12" t="s">
         <v>1080</v>
       </c>
-      <c r="C356" s="10" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F356" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A357" s="10" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B357" s="10" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C357" s="10" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A358" s="10" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B358" s="10" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C358" s="10" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F358" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A359" s="10" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B359" s="10" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C359" s="10" t="s">
-        <v>1090</v>
-      </c>
-      <c r="F359" s="5"/>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A360" s="10" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B360" s="10" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C360" s="10" t="s">
-        <v>1093</v>
-      </c>
-      <c r="F360" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A361" s="10" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B361" s="10" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C361" s="10" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A362" s="10" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B362" s="10" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C362" s="10" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F362" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A363" s="10" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B363" s="10" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C363" s="10" t="s">
-        <v>1102</v>
-      </c>
-      <c r="F363" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A364" s="10" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B364" s="10" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C364" s="10" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A365" s="10" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B365" s="10" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C365" s="10" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A366" s="10" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B366" s="10" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C366" s="10" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A367" s="10" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B367" s="10" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C367" s="10" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="368" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A368" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B368" s="10" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C368" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F368"/>
-      <c r="G368"/>
-    </row>
-    <row r="369" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="10" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B369" s="10" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C369" s="10" t="s">
-        <v>1120</v>
-      </c>
-      <c r="F369"/>
-      <c r="G369"/>
-    </row>
-    <row r="370" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="10" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B370" s="10" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C370" s="10" t="s">
-        <v>1123</v>
-      </c>
-      <c r="F370"/>
-      <c r="G370"/>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A371" s="10" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B371" s="10" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C371" s="10" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A372" s="10" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B372" s="10" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C372" s="10" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A373" s="13" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B373" s="13" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C373" s="13" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D373" s="12"/>
-      <c r="F373" s="5"/>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A374" s="11" t="s">
-        <v>1133</v>
-      </c>
-      <c r="B374" s="11" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C374" s="11" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D374" s="12"/>
-      <c r="E374" s="12"/>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A375" s="13" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B375" s="13" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C375" s="13" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D375" s="12"/>
-      <c r="E375" s="12"/>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A376" s="13" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B376" s="13" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C376" s="13" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D376" s="12"/>
-      <c r="E376" s="12"/>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A377" s="11" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B377" s="11" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C377" s="14" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D377" s="12"/>
-      <c r="E377" s="12"/>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A378" s="11" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B378" s="11" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C378" s="14" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D378" s="12"/>
-      <c r="E378" s="12"/>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A379" s="11" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B379" s="11" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C379" s="11" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D379" s="12"/>
-      <c r="E379" s="12"/>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A380" s="13" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B380" s="13" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C380" s="13" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D380" s="12"/>
-      <c r="E380" s="12"/>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A381" s="11" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B381" s="11" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C381" s="11" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D381" s="12"/>
-      <c r="E381" s="12"/>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A382" s="15" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B382" s="15" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C382" s="15" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A383" s="15" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B383" s="15" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C383" s="15" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A384" s="15" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B384" s="15" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C384" s="15" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A385" s="15" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B385" s="15" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C385" s="15" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A386" s="15" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B386" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="C386" s="15" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A387" s="15" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B387" s="15" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C387" s="15" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A388" s="15" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B388" s="15" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C388" s="15" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A389" s="15" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B389" s="15" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C389" s="15" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A390" s="15" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B390" s="15" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C390" s="15" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A391" s="15" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B391" s="15" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C391" s="15" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A392" s="15" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B392" s="15" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C392" s="15" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A393" s="15" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B393" s="15" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C393" s="15" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A394" s="15" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B394" s="15" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C394" s="15" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A395" s="15" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B395" s="15" t="s">
-        <v>1195</v>
-      </c>
-      <c r="C395" s="15" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A396" s="15" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B396" s="15" t="s">
-        <v>659</v>
-      </c>
-      <c r="C396" s="15" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A397" s="15" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B397" s="15" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C397" s="15" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A398" s="15" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B398" s="15" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C398" s="15" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A399" s="15" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B399" s="15" t="s">
-        <v>1205</v>
-      </c>
-      <c r="C399" s="15" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A400" s="15" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B400" s="15" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C400" s="16" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A401" s="16" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B401" s="15" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C401" s="16" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A402" s="15" t="s">
-        <v>1213</v>
-      </c>
-      <c r="B402" s="15" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C402" s="15" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A403" s="15" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B403" s="15" t="s">
-        <v>1217</v>
-      </c>
-      <c r="C403" s="15" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="404" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="15" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B404" s="15" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C404" s="15" t="s">
-        <v>1221</v>
-      </c>
-      <c r="F404"/>
-      <c r="G404"/>
-    </row>
-    <row r="405" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A405" s="15" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B405" s="15" t="s">
-        <v>1223</v>
-      </c>
-      <c r="C405" s="15" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F405"/>
-      <c r="G405"/>
-    </row>
-    <row r="406" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A406" s="15" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B406" s="15" t="s">
-        <v>1226</v>
-      </c>
-      <c r="C406" s="15"/>
-      <c r="F406"/>
-      <c r="G406"/>
-    </row>
-    <row r="407" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A407" s="15" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B407" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="C407" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="F407"/>
-      <c r="G407"/>
+      <c r="B365" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="C365" s="13" t="s">
+        <v>343</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{EB849CF1-AD28-49EE-83FB-47D8031749EF}"/>
+  <autoFilter ref="A2:C365" xr:uid="{EB849CF1-AD28-49EE-83FB-47D8031749EF}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
